--- a/Lesson12_Arrays/Mảng.xlsx
+++ b/Lesson12_Arrays/Mảng.xlsx
@@ -8,9 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Mảng" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -130,9 +129,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -142,17 +138,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,197 +462,197 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="72.42578125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="72.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7">
+      <c r="A1" s="4">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="4">
         <v>4</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="1"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="1"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="B17:C17"/>
@@ -700,16 +699,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>